--- a/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49299</v>
+        <v>48608</v>
       </c>
       <c r="D2" t="n">
-        <v>86363518</v>
+        <v>82283730</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>118690</v>
+        <v>116816</v>
       </c>
       <c r="D3" t="n">
-        <v>226084119</v>
+        <v>212122585</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41873</v>
+        <v>41089</v>
       </c>
       <c r="D4" t="n">
-        <v>90531052</v>
+        <v>83866911</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12567</v>
+        <v>12289</v>
       </c>
       <c r="D5" t="n">
-        <v>29680826</v>
+        <v>27322496</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3967</v>
+        <v>3812</v>
       </c>
       <c r="D6" t="n">
-        <v>12369996</v>
+        <v>11037470</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="D7" t="n">
-        <v>2446772</v>
+        <v>2209356</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>50502</v>
+        <v>50067</v>
       </c>
       <c r="D12" t="n">
-        <v>73347540</v>
+        <v>71748351</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12536</v>
+        <v>12347</v>
       </c>
       <c r="D13" t="n">
-        <v>21772251</v>
+        <v>20616898</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>33425</v>
+        <v>32863</v>
       </c>
       <c r="D14" t="n">
-        <v>61518918</v>
+        <v>57395569</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10859</v>
+        <v>10643</v>
       </c>
       <c r="D15" t="n">
-        <v>22047039</v>
+        <v>20231462</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2965</v>
+        <v>2906</v>
       </c>
       <c r="D16" t="n">
-        <v>6353381</v>
+        <v>5814288</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>817</v>
+        <v>782</v>
       </c>
       <c r="D17" t="n">
-        <v>2315141</v>
+        <v>1996408</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D18" t="n">
-        <v>485960</v>
+        <v>407661</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>32268</v>
+        <v>22134</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12544</v>
+        <v>12396</v>
       </c>
       <c r="D20" t="n">
-        <v>17782775</v>
+        <v>17215770</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17352</v>
+        <v>17061</v>
       </c>
       <c r="D21" t="n">
-        <v>30224950</v>
+        <v>28355739</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>40894</v>
+        <v>40088</v>
       </c>
       <c r="D22" t="n">
-        <v>76131054</v>
+        <v>70126801</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13767</v>
+        <v>13433</v>
       </c>
       <c r="D23" t="n">
-        <v>28798520</v>
+        <v>25937599</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3791</v>
+        <v>3691</v>
       </c>
       <c r="D24" t="n">
-        <v>7954755</v>
+        <v>7106074</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1024</v>
+        <v>977</v>
       </c>
       <c r="D25" t="n">
-        <v>2737073</v>
+        <v>2315862</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D26" t="n">
-        <v>457054</v>
+        <v>395554</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>14092</v>
+        <v>13926</v>
       </c>
       <c r="D27" t="n">
-        <v>19916423</v>
+        <v>19256836</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10104</v>
+        <v>9935</v>
       </c>
       <c r="D28" t="n">
-        <v>17955214</v>
+        <v>16958894</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29031</v>
+        <v>28511</v>
       </c>
       <c r="D29" t="n">
-        <v>54489082</v>
+        <v>50726391</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10307</v>
+        <v>10051</v>
       </c>
       <c r="D30" t="n">
-        <v>21776903</v>
+        <v>19640175</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2716</v>
+        <v>2647</v>
       </c>
       <c r="D31" t="n">
-        <v>5803705</v>
+        <v>5258822</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="D32" t="n">
-        <v>1773799</v>
+        <v>1600967</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D33" t="n">
-        <v>295871</v>
+        <v>225871</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10280</v>
+        <v>10141</v>
       </c>
       <c r="D34" t="n">
-        <v>14592560</v>
+        <v>14126072</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4371</v>
+        <v>4318</v>
       </c>
       <c r="D35" t="n">
-        <v>7728473</v>
+        <v>7447443</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10290</v>
+        <v>10114</v>
       </c>
       <c r="D36" t="n">
-        <v>19431683</v>
+        <v>18225473</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4103</v>
+        <v>4031</v>
       </c>
       <c r="D37" t="n">
-        <v>8547125</v>
+        <v>7942668</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1095</v>
+        <v>1062</v>
       </c>
       <c r="D38" t="n">
-        <v>2526140</v>
+        <v>2239144</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D39" t="n">
-        <v>870342</v>
+        <v>767012</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D40" t="n">
-        <v>172075</v>
+        <v>132075</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3168</v>
+        <v>3139</v>
       </c>
       <c r="D41" t="n">
-        <v>4549456</v>
+        <v>4458705</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>22072</v>
+        <v>21745</v>
       </c>
       <c r="D42" t="n">
-        <v>38178680</v>
+        <v>36216323</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>64967</v>
+        <v>63973</v>
       </c>
       <c r="D43" t="n">
-        <v>119307172</v>
+        <v>112079257</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2016,10 +2016,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24594</v>
+        <v>24112</v>
       </c>
       <c r="D44" t="n">
-        <v>50063160</v>
+        <v>45827033</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>7667</v>
+        <v>7514</v>
       </c>
       <c r="D45" t="n">
-        <v>15902688</v>
+        <v>14542870</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2262</v>
+        <v>2182</v>
       </c>
       <c r="D46" t="n">
-        <v>5919157</v>
+        <v>5191053</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="D47" t="n">
-        <v>1072376</v>
+        <v>869659</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>21164</v>
+        <v>20906</v>
       </c>
       <c r="D50" t="n">
-        <v>31618978</v>
+        <v>30579669</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2589</v>
+        <v>2580</v>
       </c>
       <c r="D51" t="n">
-        <v>4031740</v>
+        <v>3992571</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8658</v>
+        <v>8622</v>
       </c>
       <c r="D52" t="n">
-        <v>13684586</v>
+        <v>13494779</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2919</v>
+        <v>2908</v>
       </c>
       <c r="D53" t="n">
-        <v>4899287</v>
+        <v>4798478</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="D54" t="n">
-        <v>1714064</v>
+        <v>1662564</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D55" t="n">
-        <v>509005</v>
+        <v>499005</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8632</v>
+        <v>8606</v>
       </c>
       <c r="D58" t="n">
-        <v>12352399</v>
+        <v>12260864</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D59" t="n">
-        <v>3787540</v>
+        <v>3772020</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4177</v>
+        <v>4168</v>
       </c>
       <c r="D60" t="n">
-        <v>8842251</v>
+        <v>8773890</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="D61" t="n">
-        <v>3635076</v>
+        <v>3599061</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D62" t="n">
-        <v>1200012</v>
+        <v>1180012</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D63" t="n">
-        <v>462487</v>
+        <v>452487</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2719</v>
+        <v>2714</v>
       </c>
       <c r="D65" t="n">
-        <v>5306585</v>
+        <v>5279325</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>20313</v>
+        <v>20007</v>
       </c>
       <c r="D66" t="n">
-        <v>35383314</v>
+        <v>33603290</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>58626</v>
+        <v>57582</v>
       </c>
       <c r="D67" t="n">
-        <v>111248557</v>
+        <v>103770224</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>20957</v>
+        <v>20536</v>
       </c>
       <c r="D68" t="n">
-        <v>44572928</v>
+        <v>40879385</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6371</v>
+        <v>6229</v>
       </c>
       <c r="D69" t="n">
-        <v>14050448</v>
+        <v>12761252</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1827</v>
+        <v>1747</v>
       </c>
       <c r="D70" t="n">
-        <v>5275253</v>
+        <v>4560537</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D71" t="n">
-        <v>1061944</v>
+        <v>921278</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" t="n">
-        <v>54953</v>
+        <v>44953</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>18703</v>
+        <v>18429</v>
       </c>
       <c r="D74" t="n">
-        <v>26731382</v>
+        <v>25711176</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>75097</v>
+        <v>74131</v>
       </c>
       <c r="D75" t="n">
-        <v>137810245</v>
+        <v>132067024</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>202448</v>
+        <v>199894</v>
       </c>
       <c r="D76" t="n">
-        <v>389618354</v>
+        <v>371133086</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>88913</v>
+        <v>87529</v>
       </c>
       <c r="D77" t="n">
-        <v>193809006</v>
+        <v>181683717</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>31174</v>
+        <v>30584</v>
       </c>
       <c r="D78" t="n">
-        <v>78092381</v>
+        <v>72704288</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>10233</v>
+        <v>9916</v>
       </c>
       <c r="D79" t="n">
-        <v>33988996</v>
+        <v>31129393</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1504</v>
+        <v>1397</v>
       </c>
       <c r="D80" t="n">
-        <v>7731973</v>
+        <v>6839110</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>367716</v>
+        <v>359033</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D82" t="n">
-        <v>50625</v>
+        <v>40625</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>71570</v>
+        <v>70901</v>
       </c>
       <c r="D86" t="n">
-        <v>106715809</v>
+        <v>103979394</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5433</v>
+        <v>5427</v>
       </c>
       <c r="D87" t="n">
-        <v>8183601</v>
+        <v>8151075</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>13219</v>
+        <v>13201</v>
       </c>
       <c r="D88" t="n">
-        <v>20219429</v>
+        <v>20140632</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4278</v>
+        <v>4274</v>
       </c>
       <c r="D89" t="n">
-        <v>6665512</v>
+        <v>6631551</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D90" t="n">
-        <v>2401008</v>
+        <v>2391008</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D91" t="n">
-        <v>734512</v>
+        <v>713012</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6134</v>
+        <v>6124</v>
       </c>
       <c r="D94" t="n">
-        <v>8393314</v>
+        <v>8356145</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2128</v>
+        <v>2103</v>
       </c>
       <c r="D95" t="n">
-        <v>3582899</v>
+        <v>3463178</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6651</v>
+        <v>6594</v>
       </c>
       <c r="D96" t="n">
-        <v>11482761</v>
+        <v>11127309</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2396</v>
+        <v>2360</v>
       </c>
       <c r="D97" t="n">
-        <v>4450448</v>
+        <v>4195198</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="D98" t="n">
-        <v>1759671</v>
+        <v>1617006</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D99" t="n">
-        <v>685631</v>
+        <v>625631</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D100" t="n">
-        <v>139164</v>
+        <v>109164</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D101" t="n">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4428</v>
+        <v>4411</v>
       </c>
       <c r="D102" t="n">
-        <v>6145343</v>
+        <v>6100081</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D103" t="n">
-        <v>2115998</v>
+        <v>2085998</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D104" t="n">
-        <v>1587396</v>
+        <v>1565637</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>14516</v>
+        <v>14209</v>
       </c>
       <c r="D109" t="n">
-        <v>26497269</v>
+        <v>24525223</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>37903</v>
+        <v>37116</v>
       </c>
       <c r="D110" t="n">
-        <v>72537205</v>
+        <v>66691500</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>13097</v>
+        <v>12782</v>
       </c>
       <c r="D111" t="n">
-        <v>27745119</v>
+        <v>25088042</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3780</v>
+        <v>3693</v>
       </c>
       <c r="D112" t="n">
-        <v>8195064</v>
+        <v>7453680</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4638,10 +4638,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1005</v>
+        <v>959</v>
       </c>
       <c r="D113" t="n">
-        <v>2771693</v>
+        <v>2393231</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D114" t="n">
-        <v>643691</v>
+        <v>558868</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D115" t="n">
-        <v>56668</v>
+        <v>46668</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>11940</v>
+        <v>11794</v>
       </c>
       <c r="D117" t="n">
-        <v>16968086</v>
+        <v>16377315</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4828,10 +4828,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>39509</v>
+        <v>38856</v>
       </c>
       <c r="D118" t="n">
-        <v>68718370</v>
+        <v>64860378</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>84483</v>
+        <v>82921</v>
       </c>
       <c r="D119" t="n">
-        <v>156952903</v>
+        <v>145553251</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>27932</v>
+        <v>27309</v>
       </c>
       <c r="D120" t="n">
-        <v>57505525</v>
+        <v>52230960</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>8336</v>
+        <v>8122</v>
       </c>
       <c r="D121" t="n">
-        <v>18128567</v>
+        <v>16204266</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2153</v>
+        <v>2059</v>
       </c>
       <c r="D122" t="n">
-        <v>5569112</v>
+        <v>4795529</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="D123" t="n">
-        <v>1223881</v>
+        <v>1001715</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>31145</v>
+        <v>30777</v>
       </c>
       <c r="D127" t="n">
-        <v>44695843</v>
+        <v>43185314</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5208,10 +5208,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>47527</v>
+        <v>46836</v>
       </c>
       <c r="D128" t="n">
-        <v>84452561</v>
+        <v>80423409</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>99233</v>
+        <v>97632</v>
       </c>
       <c r="D129" t="n">
-        <v>185251122</v>
+        <v>173717263</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5284,10 +5284,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>31528</v>
+        <v>30902</v>
       </c>
       <c r="D130" t="n">
-        <v>66953793</v>
+        <v>61527774</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5322,10 +5322,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>8952</v>
+        <v>8759</v>
       </c>
       <c r="D131" t="n">
-        <v>20241709</v>
+        <v>18574522</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2455</v>
+        <v>2348</v>
       </c>
       <c r="D132" t="n">
-        <v>7198129</v>
+        <v>6238750</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5398,10 +5398,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="D133" t="n">
-        <v>1247054</v>
+        <v>995652</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5436,10 +5436,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D134" t="n">
-        <v>119248</v>
+        <v>109248</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>38836</v>
+        <v>38410</v>
       </c>
       <c r="D136" t="n">
-        <v>55027367</v>
+        <v>53503679</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5550,10 +5550,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>17377</v>
+        <v>17078</v>
       </c>
       <c r="D137" t="n">
-        <v>30560579</v>
+        <v>28714764</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>41766</v>
+        <v>40968</v>
       </c>
       <c r="D138" t="n">
-        <v>78562789</v>
+        <v>72598002</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>15266</v>
+        <v>14904</v>
       </c>
       <c r="D139" t="n">
-        <v>31571597</v>
+        <v>28494702</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4203</v>
+        <v>4089</v>
       </c>
       <c r="D140" t="n">
-        <v>9203742</v>
+        <v>8233228</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1049</v>
+        <v>996</v>
       </c>
       <c r="D141" t="n">
-        <v>2949090</v>
+        <v>2482770</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5740,10 +5740,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D142" t="n">
-        <v>590291</v>
+        <v>478125</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>13129</v>
+        <v>12978</v>
       </c>
       <c r="D145" t="n">
-        <v>18897395</v>
+        <v>18286273</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>47116</v>
+        <v>46412</v>
       </c>
       <c r="D146" t="n">
-        <v>85439298</v>
+        <v>81078819</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>109152</v>
+        <v>107279</v>
       </c>
       <c r="D147" t="n">
-        <v>211599243</v>
+        <v>198545214</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5968,10 +5968,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>34111</v>
+        <v>33334</v>
       </c>
       <c r="D148" t="n">
-        <v>77231096</v>
+        <v>70610137</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6006,10 +6006,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>9733</v>
+        <v>9495</v>
       </c>
       <c r="D149" t="n">
-        <v>24483579</v>
+        <v>22360293</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3095</v>
+        <v>2970</v>
       </c>
       <c r="D150" t="n">
-        <v>10101548</v>
+        <v>8992835</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="D151" t="n">
-        <v>2134180</v>
+        <v>1791917</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6158,10 +6158,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>36246</v>
+        <v>35834</v>
       </c>
       <c r="D153" t="n">
-        <v>52918102</v>
+        <v>51405210</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48608</v>
+        <v>49382</v>
       </c>
       <c r="D2" t="n">
-        <v>82283730</v>
+        <v>86524594</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>116816</v>
+        <v>119131</v>
       </c>
       <c r="D3" t="n">
-        <v>212122585</v>
+        <v>228664183</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41089</v>
+        <v>41988</v>
       </c>
       <c r="D4" t="n">
-        <v>83866911</v>
+        <v>91450084</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12289</v>
+        <v>12575</v>
       </c>
       <c r="D5" t="n">
-        <v>27322496</v>
+        <v>29859267</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3812</v>
+        <v>3945</v>
       </c>
       <c r="D6" t="n">
-        <v>11037470</v>
+        <v>12208823</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>588</v>
+        <v>624</v>
       </c>
       <c r="D7" t="n">
-        <v>2209356</v>
+        <v>2526642</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>26323</v>
+        <v>36323</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>50067</v>
+        <v>50731</v>
       </c>
       <c r="D12" t="n">
-        <v>71748351</v>
+        <v>73933402</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12347</v>
+        <v>12597</v>
       </c>
       <c r="D13" t="n">
-        <v>20616898</v>
+        <v>21891030</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32863</v>
+        <v>33490</v>
       </c>
       <c r="D14" t="n">
-        <v>57395569</v>
+        <v>61723176</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10643</v>
+        <v>10868</v>
       </c>
       <c r="D15" t="n">
-        <v>20231462</v>
+        <v>22094342</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2906</v>
+        <v>2983</v>
       </c>
       <c r="D16" t="n">
-        <v>5814288</v>
+        <v>6481599</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>782</v>
+        <v>818</v>
       </c>
       <c r="D17" t="n">
-        <v>1996408</v>
+        <v>2317782</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D18" t="n">
-        <v>407661</v>
+        <v>499161</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12396</v>
+        <v>12602</v>
       </c>
       <c r="D20" t="n">
-        <v>17215770</v>
+        <v>17928853</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17061</v>
+        <v>17416</v>
       </c>
       <c r="D21" t="n">
-        <v>28355739</v>
+        <v>30335670</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>40088</v>
+        <v>40970</v>
       </c>
       <c r="D22" t="n">
-        <v>70126801</v>
+        <v>76380720</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13433</v>
+        <v>13791</v>
       </c>
       <c r="D23" t="n">
-        <v>25937599</v>
+        <v>28916859</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3691</v>
+        <v>3770</v>
       </c>
       <c r="D24" t="n">
-        <v>7106074</v>
+        <v>7784658</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>977</v>
+        <v>1017</v>
       </c>
       <c r="D25" t="n">
-        <v>2315862</v>
+        <v>2649083</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D26" t="n">
-        <v>395554</v>
+        <v>438053</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>13926</v>
+        <v>14153</v>
       </c>
       <c r="D27" t="n">
-        <v>19256836</v>
+        <v>19969519</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9935</v>
+        <v>10133</v>
       </c>
       <c r="D28" t="n">
-        <v>16958894</v>
+        <v>18141574</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>28511</v>
+        <v>29140</v>
       </c>
       <c r="D29" t="n">
-        <v>50726391</v>
+        <v>55011320</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10051</v>
+        <v>10279</v>
       </c>
       <c r="D30" t="n">
-        <v>19640175</v>
+        <v>21691863</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2647</v>
+        <v>2712</v>
       </c>
       <c r="D31" t="n">
-        <v>5258822</v>
+        <v>5812559</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>670</v>
+        <v>697</v>
       </c>
       <c r="D32" t="n">
-        <v>1600967</v>
+        <v>1842400</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10141</v>
+        <v>10297</v>
       </c>
       <c r="D34" t="n">
-        <v>14126072</v>
+        <v>14631846</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4318</v>
+        <v>4387</v>
       </c>
       <c r="D35" t="n">
-        <v>7447443</v>
+        <v>7790073</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10114</v>
+        <v>10299</v>
       </c>
       <c r="D36" t="n">
-        <v>18225473</v>
+        <v>19492925</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4031</v>
+        <v>4104</v>
       </c>
       <c r="D37" t="n">
-        <v>7942668</v>
+        <v>8575659</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1062</v>
+        <v>1087</v>
       </c>
       <c r="D38" t="n">
-        <v>2239144</v>
+        <v>2448642</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="D39" t="n">
-        <v>767012</v>
+        <v>897842</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
-        <v>132075</v>
+        <v>162075</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3139</v>
+        <v>3186</v>
       </c>
       <c r="D41" t="n">
-        <v>4458705</v>
+        <v>4612359</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>21745</v>
+        <v>22089</v>
       </c>
       <c r="D42" t="n">
-        <v>36216323</v>
+        <v>38080045</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>63973</v>
+        <v>65146</v>
       </c>
       <c r="D43" t="n">
-        <v>112079257</v>
+        <v>120087402</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2016,10 +2016,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24112</v>
+        <v>24633</v>
       </c>
       <c r="D44" t="n">
-        <v>45827033</v>
+        <v>50170659</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>7514</v>
+        <v>7691</v>
       </c>
       <c r="D45" t="n">
-        <v>14542870</v>
+        <v>16048032</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2182</v>
+        <v>2260</v>
       </c>
       <c r="D46" t="n">
-        <v>5191053</v>
+        <v>5840526</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D47" t="n">
-        <v>869659</v>
+        <v>969659</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20906</v>
+        <v>21264</v>
       </c>
       <c r="D50" t="n">
-        <v>30579669</v>
+        <v>31791856</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2580</v>
+        <v>2598</v>
       </c>
       <c r="D51" t="n">
-        <v>3992571</v>
+        <v>4065800</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8622</v>
+        <v>8667</v>
       </c>
       <c r="D52" t="n">
-        <v>13494779</v>
+        <v>13751022</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2908</v>
+        <v>2927</v>
       </c>
       <c r="D53" t="n">
-        <v>4798478</v>
+        <v>4911325</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="D54" t="n">
-        <v>1662564</v>
+        <v>1746827</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D55" t="n">
-        <v>499005</v>
+        <v>502005</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8606</v>
+        <v>8666</v>
       </c>
       <c r="D58" t="n">
-        <v>12260864</v>
+        <v>12406815</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1762</v>
+        <v>1767</v>
       </c>
       <c r="D59" t="n">
-        <v>3772020</v>
+        <v>3802979</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4168</v>
+        <v>4179</v>
       </c>
       <c r="D60" t="n">
-        <v>8773890</v>
+        <v>8831338</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="D61" t="n">
-        <v>3599061</v>
+        <v>3609061</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D62" t="n">
-        <v>1180012</v>
+        <v>1181512</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2714</v>
+        <v>2721</v>
       </c>
       <c r="D65" t="n">
-        <v>5279325</v>
+        <v>5316809</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>20007</v>
+        <v>20381</v>
       </c>
       <c r="D66" t="n">
-        <v>33603290</v>
+        <v>35507907</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>57582</v>
+        <v>58770</v>
       </c>
       <c r="D67" t="n">
-        <v>103770224</v>
+        <v>111893866</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>20536</v>
+        <v>20987</v>
       </c>
       <c r="D68" t="n">
-        <v>40879385</v>
+        <v>44756470</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6229</v>
+        <v>6373</v>
       </c>
       <c r="D69" t="n">
-        <v>12761252</v>
+        <v>14023714</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1747</v>
+        <v>1816</v>
       </c>
       <c r="D70" t="n">
-        <v>4560537</v>
+        <v>5170596</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="D71" t="n">
-        <v>921278</v>
+        <v>1123358</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>18429</v>
+        <v>18743</v>
       </c>
       <c r="D74" t="n">
-        <v>25711176</v>
+        <v>26662381</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>74131</v>
+        <v>75287</v>
       </c>
       <c r="D75" t="n">
-        <v>132067024</v>
+        <v>138248949</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>199894</v>
+        <v>203300</v>
       </c>
       <c r="D76" t="n">
-        <v>371133086</v>
+        <v>394393320</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>87529</v>
+        <v>89241</v>
       </c>
       <c r="D77" t="n">
-        <v>181683717</v>
+        <v>196413159</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>30584</v>
+        <v>31305</v>
       </c>
       <c r="D78" t="n">
-        <v>72704288</v>
+        <v>79180055</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9916</v>
+        <v>10263</v>
       </c>
       <c r="D79" t="n">
-        <v>31129393</v>
+        <v>34264053</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1397</v>
+        <v>1462</v>
       </c>
       <c r="D80" t="n">
-        <v>6839110</v>
+        <v>7383118</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D81" t="n">
-        <v>359033</v>
+        <v>419033</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>70901</v>
+        <v>71842</v>
       </c>
       <c r="D86" t="n">
-        <v>103979394</v>
+        <v>107214103</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5427</v>
+        <v>5443</v>
       </c>
       <c r="D87" t="n">
-        <v>8151075</v>
+        <v>8226342</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>13201</v>
+        <v>13241</v>
       </c>
       <c r="D88" t="n">
-        <v>20140632</v>
+        <v>20331085</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4274</v>
+        <v>4285</v>
       </c>
       <c r="D89" t="n">
-        <v>6631551</v>
+        <v>6710451</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="D90" t="n">
-        <v>2391008</v>
+        <v>2411008</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D91" t="n">
-        <v>713012</v>
+        <v>714512</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D92" t="n">
-        <v>108725</v>
+        <v>118725</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6124</v>
+        <v>6139</v>
       </c>
       <c r="D94" t="n">
-        <v>8356145</v>
+        <v>8395876</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2103</v>
+        <v>2139</v>
       </c>
       <c r="D95" t="n">
-        <v>3463178</v>
+        <v>3678111</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6594</v>
+        <v>6715</v>
       </c>
       <c r="D96" t="n">
-        <v>11127309</v>
+        <v>11919690</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2360</v>
+        <v>2401</v>
       </c>
       <c r="D97" t="n">
-        <v>4195198</v>
+        <v>4491116</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>877</v>
+        <v>893</v>
       </c>
       <c r="D98" t="n">
-        <v>1617006</v>
+        <v>1750506</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D99" t="n">
-        <v>625631</v>
+        <v>736173</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D100" t="n">
-        <v>109164</v>
+        <v>119164</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4411</v>
+        <v>4493</v>
       </c>
       <c r="D102" t="n">
-        <v>6100081</v>
+        <v>6373457</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D103" t="n">
-        <v>2085998</v>
+        <v>2095998</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="D104" t="n">
-        <v>1565637</v>
+        <v>1611137</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D105" t="n">
-        <v>548616</v>
+        <v>549776</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>14209</v>
+        <v>14497</v>
       </c>
       <c r="D109" t="n">
-        <v>24525223</v>
+        <v>26173730</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>37116</v>
+        <v>37955</v>
       </c>
       <c r="D110" t="n">
-        <v>66691500</v>
+        <v>72630023</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>12782</v>
+        <v>13092</v>
       </c>
       <c r="D111" t="n">
-        <v>25088042</v>
+        <v>27666183</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3693</v>
+        <v>3772</v>
       </c>
       <c r="D112" t="n">
-        <v>7453680</v>
+        <v>8163925</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4638,10 +4638,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>959</v>
+        <v>1000</v>
       </c>
       <c r="D113" t="n">
-        <v>2393231</v>
+        <v>2756968</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D114" t="n">
-        <v>558868</v>
+        <v>631700</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D115" t="n">
-        <v>46668</v>
+        <v>52607</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>11794</v>
+        <v>11989</v>
       </c>
       <c r="D117" t="n">
-        <v>16377315</v>
+        <v>16989636</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4828,10 +4828,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>38856</v>
+        <v>39610</v>
       </c>
       <c r="D118" t="n">
-        <v>64860378</v>
+        <v>68793133</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>82921</v>
+        <v>84546</v>
       </c>
       <c r="D119" t="n">
-        <v>145553251</v>
+        <v>156871042</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>27309</v>
+        <v>27915</v>
       </c>
       <c r="D120" t="n">
-        <v>52230960</v>
+        <v>57369100</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>8122</v>
+        <v>8331</v>
       </c>
       <c r="D121" t="n">
-        <v>16204266</v>
+        <v>17892486</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2059</v>
+        <v>2148</v>
       </c>
       <c r="D122" t="n">
-        <v>4795529</v>
+        <v>5526903</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="D123" t="n">
-        <v>1001715</v>
+        <v>1177046</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5056,10 +5056,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D124" t="n">
-        <v>53166</v>
+        <v>63166</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>30777</v>
+        <v>31225</v>
       </c>
       <c r="D127" t="n">
-        <v>43185314</v>
+        <v>44537020</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5208,10 +5208,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>46836</v>
+        <v>47604</v>
       </c>
       <c r="D128" t="n">
-        <v>80423409</v>
+        <v>84675192</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>97632</v>
+        <v>99253</v>
       </c>
       <c r="D129" t="n">
-        <v>173717263</v>
+        <v>184871413</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5284,10 +5284,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>30902</v>
+        <v>31509</v>
       </c>
       <c r="D130" t="n">
-        <v>61527774</v>
+        <v>66744015</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5322,10 +5322,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>8759</v>
+        <v>8935</v>
       </c>
       <c r="D131" t="n">
-        <v>18574522</v>
+        <v>20149440</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2348</v>
+        <v>2426</v>
       </c>
       <c r="D132" t="n">
-        <v>6238750</v>
+        <v>6919242</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5398,10 +5398,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="D133" t="n">
-        <v>995652</v>
+        <v>1128652</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>38410</v>
+        <v>38982</v>
       </c>
       <c r="D136" t="n">
-        <v>53503679</v>
+        <v>55198938</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5550,10 +5550,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>17078</v>
+        <v>17418</v>
       </c>
       <c r="D137" t="n">
-        <v>28714764</v>
+        <v>30648451</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>40968</v>
+        <v>41871</v>
       </c>
       <c r="D138" t="n">
-        <v>72598002</v>
+        <v>79146010</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>14904</v>
+        <v>15258</v>
       </c>
       <c r="D139" t="n">
-        <v>28494702</v>
+        <v>31570247</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4089</v>
+        <v>4192</v>
       </c>
       <c r="D140" t="n">
-        <v>8233228</v>
+        <v>9147899</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>996</v>
+        <v>1053</v>
       </c>
       <c r="D141" t="n">
-        <v>2482770</v>
+        <v>2976173</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5740,10 +5740,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D142" t="n">
-        <v>478125</v>
+        <v>531297</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>12978</v>
+        <v>13196</v>
       </c>
       <c r="D145" t="n">
-        <v>18286273</v>
+        <v>19080854</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>46412</v>
+        <v>47195</v>
       </c>
       <c r="D146" t="n">
-        <v>81078819</v>
+        <v>85167812</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>107279</v>
+        <v>109296</v>
       </c>
       <c r="D147" t="n">
-        <v>198545214</v>
+        <v>212232856</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5968,10 +5968,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>33334</v>
+        <v>34052</v>
       </c>
       <c r="D148" t="n">
-        <v>70610137</v>
+        <v>76659251</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6006,10 +6006,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>9495</v>
+        <v>9724</v>
       </c>
       <c r="D149" t="n">
-        <v>22360293</v>
+        <v>24251478</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2970</v>
+        <v>3074</v>
       </c>
       <c r="D150" t="n">
-        <v>8992835</v>
+        <v>9909227</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D151" t="n">
-        <v>1791917</v>
+        <v>1992583</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6120,10 +6120,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D152" t="n">
-        <v>104483</v>
+        <v>114483</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6158,10 +6158,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>35834</v>
+        <v>36376</v>
       </c>
       <c r="D153" t="n">
-        <v>51405210</v>
+        <v>53048166</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
